--- a/Spider pinout.xlsx
+++ b/Spider pinout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\BOARD-FYSETC-SPIDER\FYSETC-SPIDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C942FECC-C30A-4CE4-B97F-14BF155195A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -251,28 +252,16 @@
     <t>E3-MOTOR(7)</t>
   </si>
   <si>
-    <t>PE8</t>
-  </si>
-  <si>
     <t>PC4</t>
   </si>
   <si>
-    <t>PD12</t>
-  </si>
-  <si>
     <t>PA15</t>
   </si>
   <si>
     <t>E4-MOTOR(8)</t>
   </si>
   <si>
-    <t>PC5</t>
-  </si>
-  <si>
     <t>PE0</t>
-  </si>
-  <si>
-    <t>PE1</t>
   </si>
   <si>
     <t>PD11</t>
@@ -605,13 +594,29 @@
   <si>
     <t>EEPROM(4K) 
 I2C Pin-Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,44 +826,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -991,25 +958,63 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1026,14 +1031,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E79" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:E79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E79" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Features" dataDxfId="6"/>
-    <tableColumn id="2" name="Spider Pin" dataDxfId="5"/>
-    <tableColumn id="3" name="STM32 Pin" dataDxfId="4"/>
-    <tableColumn id="4" name="Pin No." dataDxfId="3"/>
-    <tableColumn id="5" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Features" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Spider Pin" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STM32 Pin" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Pin No." dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1301,11 +1306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="D26" s="6">
         <v>39</v>
@@ -1678,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6">
         <v>33</v>
@@ -1691,7 +1696,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="D28" s="6">
         <v>59</v>
@@ -1704,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="6">
         <v>77</v>
@@ -1713,13 +1718,13 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D30" s="6">
         <v>34</v>
@@ -1732,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="6">
         <v>97</v>
@@ -1745,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="D32" s="6">
         <v>98</v>
@@ -1758,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D33" s="6">
         <v>58</v>
@@ -1767,13 +1772,13 @@
     </row>
     <row r="34" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="6">
         <v>45</v>
@@ -1783,10 +1788,10 @@
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="6">
         <v>44</v>
@@ -1796,10 +1801,10 @@
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D36" s="6">
         <v>43</v>
@@ -1808,105 +1813,105 @@
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D37" s="6">
         <v>53</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D38" s="6">
         <v>24</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D39" s="6">
         <v>52</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D40" s="6">
         <v>25</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D41" s="6">
         <v>23</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D42" s="6">
         <v>26</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D43" s="6">
         <v>35</v>
@@ -1919,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D44" s="6">
         <v>36</v>
@@ -1932,7 +1937,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D45" s="6">
         <v>37</v>
@@ -1942,72 +1947,72 @@
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D46" s="6">
         <v>92</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47" s="6">
         <v>91</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D48" s="6">
         <v>93</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D49" s="6">
         <v>84</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D50" s="6">
         <v>54</v>
@@ -2020,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D51" s="6">
         <v>65</v>
@@ -2033,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D52" s="6">
         <v>89</v>
@@ -2043,10 +2048,10 @@
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D53" s="6">
         <v>90</v>
@@ -2055,25 +2060,25 @@
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D54" s="6">
         <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>32</v>
@@ -2082,13 +2087,13 @@
         <v>16</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
       <c r="B56" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>33</v>
@@ -2097,13 +2102,13 @@
         <v>17</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="B57" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>34</v>
@@ -2112,48 +2117,48 @@
         <v>18</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D58" s="6">
         <v>82</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D59" s="6">
         <v>81</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D60" s="6">
         <v>80</v>
@@ -2163,10 +2168,10 @@
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D61" s="6">
         <v>78</v>
@@ -2176,10 +2181,10 @@
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="B62" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D62" s="6">
         <v>79</v>
@@ -2189,10 +2194,10 @@
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D63" s="6">
         <v>83</v>
@@ -2202,10 +2207,10 @@
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D64" s="6">
         <v>67</v>
@@ -2215,10 +2220,10 @@
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D65" s="6">
         <v>66</v>
@@ -2227,13 +2232,13 @@
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D66" s="6">
         <v>14</v>
@@ -2243,10 +2248,10 @@
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D67" s="6">
         <v>63</v>
@@ -2256,10 +2261,10 @@
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="B68" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D68" s="6">
         <v>64</v>
@@ -2269,10 +2274,10 @@
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
       <c r="B69" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D69" s="6">
         <v>47</v>
@@ -2282,10 +2287,10 @@
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D70" s="6">
         <v>31</v>
@@ -2295,10 +2300,10 @@
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D71" s="6">
         <v>32</v>
@@ -2308,10 +2313,10 @@
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D72" s="6">
         <v>30</v>
@@ -2321,10 +2326,10 @@
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D73" s="6">
         <v>29</v>
@@ -2333,45 +2338,45 @@
     </row>
     <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D74" s="6">
         <v>95</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
       <c r="B75" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D75" s="6">
         <v>96</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D76" s="6">
         <v>68</v>
@@ -2381,10 +2386,10 @@
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D77" s="6">
         <v>69</v>
@@ -2393,30 +2398,30 @@
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D78" s="6">
         <v>72</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D79" s="9">
         <v>76</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
